--- a/biology/Botanique/Crocanthème/Crocanthème.xlsx
+++ b/biology/Botanique/Crocanthème/Crocanthème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crocanth%C3%A8me</t>
+          <t>Crocanthème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocanthème
-Crocanthemum, le Crocanthème, est un genre de plantes à fleurs de la famille des Cistaceae. Il comprend une vingtaine d'espèces originaires des Amériques, dont l'espèce type Crocanthemum carolinianum. Ce sont des herbacées, vivaces ou des sous-arbrisseaux, d'une hauteur de 4 à 80 cm. Les tiges sont non dimorphes, velues, généralement munies de quelques poils (chasmogames), et cléistogames[1].
+Crocanthemum, le Crocanthème, est un genre de plantes à fleurs de la famille des Cistaceae. Il comprend une vingtaine d'espèces originaires des Amériques, dont l'espèce type Crocanthemum carolinianum. Ce sont des herbacées, vivaces ou des sous-arbrisseaux, d'une hauteur de 4 à 80 cm. Les tiges sont non dimorphes, velues, généralement munies de quelques poils (chasmogames), et cléistogames.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crocanth%C3%A8me</t>
+          <t>Crocanthème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 juin 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 juin 2021) :
 Crocanthemum aldersonii (Greene) Janch.
 Crocanthemum arenicola (Chapm.) Barnhart
 Crocanthemum argenteum (Hemsl.) Janch.
@@ -553,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crocanth%C3%A8me</t>
+          <t>Crocanthème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,14 +585,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est décrit en 1836 par le botaniste français Édouard Spach, pour l'espèce type Crocanthemum carolinianum, initialement classée dans le genre Cistus sous le basionyme Cistus carolinianus, par le botaniste américain Thomas Walter en 1788[3].
-Ce taxon porte en français le normalisé « Crocanthème »[2].
-Les genres suivants sont synonymes de Crocanthemum[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est décrit en 1836 par le botaniste français Édouard Spach, pour l'espèce type Crocanthemum carolinianum, initialement classée dans le genre Cistus sous le basionyme Cistus carolinianus, par le botaniste américain Thomas Walter en 1788.
+Ce taxon porte en français le normalisé « Crocanthème ».
+Les genres suivants sont synonymes de Crocanthemum :
 Heteromeris Spach
 Trichasterophyllum Willd. ex Link
-Crocanthemum pourrait être synonyme de Helianthemum[1],[4].
+Crocanthemum pourrait être synonyme de Helianthemum,.
 </t>
         </is>
       </c>
